--- a/biology/Zoologie/Faux-cuivré_du_sainfoin/Faux-cuivré_du_sainfoin.xlsx
+++ b/biology/Zoologie/Faux-cuivré_du_sainfoin/Faux-cuivré_du_sainfoin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_du_sainfoin</t>
+          <t>Faux-cuivré_du_sainfoin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tomares mauretanicus
 Le Faux-cuivré du sainfoin (Tomares mauretanicus) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_du_sainfoin</t>
+          <t>Faux-cuivré_du_sainfoin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tomares mauretanicus ou Tomares mauritanicus a été nommé par Lucas en 1849[1]]
-Synonyme : Polyommatus mauretanicus (Lucas, 1849)[2]
-Noms vernaculaires
-Le Faux-cuivré du sainfoin se nomme Moroccan Hairstreak en anglais.
-Sous-espèces
-Tomares mauretanicus mauretanicus (Lucas, 1849) en Algérie.
-Tomares mauretanicus antonius (Brévignon, 1984) dans le Moyen-atlas marocain
-Tomares mauretanicus amelnorum (Tarrier, 1997) dans l'Anti-Atlas marocain[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomares mauretanicus ou Tomares mauritanicus a été nommé par Lucas en 1849]
+Synonyme : Polyommatus mauretanicus (Lucas, 1849)
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_du_sainfoin</t>
+          <t>Faux-cuivré_du_sainfoin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Faux-cuivré du sainfoin est un petit papillon présentant un dimorphisme sexuel. Le dessus des ailes du mâle est marron alors que le verso des ailes postérieures et de la partie supérieure des antérieures est ornementé de dessins ovales et la partie inférieure orange.
-Le dessus de la femelle présente une couleur orange bordée de marron aux antérieures et marron orné d'orange aux postérieures. Le verso des antérieures est orange à points noirs bordé de marron et celui des postérieures marron orné d'ovales orange.
-Chenille et chrysalide
-Les œufs sont pondus en petits tas sur les feuilles.
-Espèces proches ou ressemblantes
-Le faux-cuivré smaragdin (Tomares ballus) est très proche.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré du sainfoin se nomme Moroccan Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -567,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_du_sainfoin</t>
+          <t>Faux-cuivré_du_sainfoin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,17 +592,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération (univoltin), de janvier à avril ou mai suivant les localités et altitudes.
-Le Faux-cuivré  du sainfoin hiverne à l'état de chrysalide.
-Plantes hôtes
-Ses plantes hôtes sont Hedysarum pallidum et Hippocrepis multisiliquosa.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tomares mauretanicus mauretanicus (Lucas, 1849) en Algérie.
+Tomares mauretanicus antonius (Brévignon, 1984) dans le Moyen-atlas marocain
+Tomares mauretanicus amelnorum (Tarrier, 1997) dans l'Anti-Atlas marocain.</t>
         </is>
       </c>
     </row>
@@ -602,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_du_sainfoin</t>
+          <t>Faux-cuivré_du_sainfoin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,16 +630,271 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré du sainfoin est un petit papillon présentant un dimorphisme sexuel. Le dessus des ailes du mâle est marron alors que le verso des ailes postérieures et de la partie supérieure des antérieures est ornementé de dessins ovales et la partie inférieure orange.
+Le dessus de la femelle présente une couleur orange bordée de marron aux antérieures et marron orné d'orange aux postérieures. Le verso des antérieures est orange à points noirs bordé de marron et celui des postérieures marron orné d'ovales orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus en petits tas sur les feuilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces proches ou ressemblantes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faux-cuivré smaragdin (Tomares ballus) est très proche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération (univoltin), de janvier à avril ou mai suivant les localités et altitudes.
+Le Faux-cuivré  du sainfoin hiverne à l'état de chrysalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Hedysarum pallidum et Hippocrepis multisiliquosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans toute l'Afrique du Nord, Maroc, Algérie et Tunisie jusqu'à 2400 mètres[4].
-Biotope
-Il affectionne les pentes rocheuses sèches et herbues.
-Protection
-Pas de statut de protection particulier.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Afrique du Nord, Maroc, Algérie et Tunisie jusqu'à 2400 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les pentes rocheuses sèches et herbues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_du_sainfoin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
